--- a/Esquema General de Integracion de Sistemas.xlsx
+++ b/Esquema General de Integracion de Sistemas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -287,12 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -400,6 +400,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -435,6 +452,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,13 +662,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -645,10 +679,10 @@
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -682,13 +716,13 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -697,40 +731,40 @@
         <v>13</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -738,15 +772,15 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -755,14 +789,14 @@
         <v>8</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -777,7 +811,7 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1"/>
@@ -788,13 +822,13 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8" t="s">
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -803,26 +837,26 @@
         <v>13</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -837,13 +871,13 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -852,52 +886,52 @@
         <v>13</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="8"/>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -906,14 +940,14 @@
         <v>8</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -928,15 +962,15 @@
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -944,15 +978,15 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
+      <c r="D27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -960,15 +994,15 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
+      <c r="D28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -976,15 +1010,15 @@
       <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -993,14 +1027,14 @@
         <v>8</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1015,15 +1049,15 @@
       <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1032,24 +1066,24 @@
         <v>22</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="E33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
@@ -1065,60 +1099,60 @@
         <v>25</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="E36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="E37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="E38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="E40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -1134,68 +1168,68 @@
         <v>30</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="E42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>31</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="E45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -1210,13 +1244,13 @@
       <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8" t="s">
+      <c r="D48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1224,13 +1258,13 @@
       <c r="C49" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8" t="s">
+      <c r="D49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1238,13 +1272,13 @@
       <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8" t="s">
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1252,15 +1286,15 @@
       <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="8"/>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -1276,36 +1310,36 @@
         <v>57</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="E54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
